--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lif-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lif-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>17.936117</v>
       </c>
       <c r="I2">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J2">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N2">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O2">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P2">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q2">
-        <v>189.9025219068305</v>
+        <v>187.4639453756275</v>
       </c>
       <c r="R2">
-        <v>1139.415131440983</v>
+        <v>1124.783672253765</v>
       </c>
       <c r="S2">
-        <v>0.2004562599561802</v>
+        <v>0.1782016467897215</v>
       </c>
       <c r="T2">
-        <v>0.1567827542466348</v>
+        <v>0.1455063273944688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>17.936117</v>
       </c>
       <c r="I3">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J3">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P3">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q3">
         <v>106.5272602605181</v>
@@ -641,10 +641,10 @@
         <v>958.745342344663</v>
       </c>
       <c r="S3">
-        <v>0.1124474596797548</v>
+        <v>0.1012639159406577</v>
       </c>
       <c r="T3">
-        <v>0.1319227130184156</v>
+        <v>0.1240269725747325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>17.936117</v>
       </c>
       <c r="I4">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J4">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N4">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O4">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P4">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q4">
-        <v>79.68099450360545</v>
+        <v>160.2362730729645</v>
       </c>
       <c r="R4">
-        <v>717.1289505324489</v>
+        <v>1442.126457656681</v>
       </c>
       <c r="S4">
-        <v>0.08410922607767216</v>
+        <v>0.1523192509356106</v>
       </c>
       <c r="T4">
-        <v>0.09867646032775165</v>
+        <v>0.186559006561287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>17.936117</v>
       </c>
       <c r="I5">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J5">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N5">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O5">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P5">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q5">
-        <v>100.784350759541</v>
+        <v>78.72376386833433</v>
       </c>
       <c r="R5">
-        <v>604.706104557246</v>
+        <v>472.342583210006</v>
       </c>
       <c r="S5">
-        <v>0.1063853908442631</v>
+        <v>0.07483414655928954</v>
       </c>
       <c r="T5">
-        <v>0.08320715248211463</v>
+        <v>0.06110404716063321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>17.936117</v>
       </c>
       <c r="I6">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J6">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N6">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O6">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P6">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q6">
-        <v>140.7250919728058</v>
+        <v>30.88437922347</v>
       </c>
       <c r="R6">
-        <v>1266.525827755252</v>
+        <v>277.95941301123</v>
       </c>
       <c r="S6">
-        <v>0.14854581885278</v>
+        <v>0.02935843063941058</v>
       </c>
       <c r="T6">
-        <v>0.1742731004009424</v>
+        <v>0.03595789514880294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>17.936117</v>
       </c>
       <c r="I7">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J7">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N7">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O7">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P7">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q7">
-        <v>143.7393999235918</v>
+        <v>62.67631400972867</v>
       </c>
       <c r="R7">
-        <v>1293.654599312326</v>
+        <v>564.0868260875581</v>
       </c>
       <c r="S7">
-        <v>0.1517276454662632</v>
+        <v>0.05957957594919714</v>
       </c>
       <c r="T7">
-        <v>0.1780060010854075</v>
+        <v>0.07297243409582956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H8">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I8">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J8">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N8">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O8">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P8">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q8">
-        <v>15.7252682913105</v>
+        <v>33.809993169965</v>
       </c>
       <c r="R8">
-        <v>94.35160974786298</v>
+        <v>202.85995901979</v>
       </c>
       <c r="S8">
-        <v>0.01659919224258724</v>
+        <v>0.03213949460395983</v>
       </c>
       <c r="T8">
-        <v>0.01298271791876743</v>
+        <v>0.0262427419071768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H9">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I9">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J9">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P9">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q9">
-        <v>8.821208539593666</v>
+        <v>19.21268612269089</v>
       </c>
       <c r="R9">
-        <v>79.390876856343</v>
+        <v>172.914175104218</v>
       </c>
       <c r="S9">
-        <v>0.009311442809632654</v>
+        <v>0.01826341753054063</v>
       </c>
       <c r="T9">
-        <v>0.01092413115477182</v>
+        <v>0.02236884051085552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H10">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I10">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J10">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N10">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O10">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P10">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q10">
-        <v>6.598148374787667</v>
+        <v>28.89935601921844</v>
       </c>
       <c r="R10">
-        <v>59.383335373089</v>
+        <v>260.094204172966</v>
       </c>
       <c r="S10">
-        <v>0.006964837183651487</v>
+        <v>0.02747148430845266</v>
       </c>
       <c r="T10">
-        <v>0.00817110692954383</v>
+        <v>0.03364678325207501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H11">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I11">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J11">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N11">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O11">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P11">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q11">
-        <v>8.345655125301001</v>
+        <v>14.19819642315267</v>
       </c>
       <c r="R11">
-        <v>50.073930751806</v>
+        <v>85.18917853891601</v>
       </c>
       <c r="S11">
-        <v>0.008809460751251833</v>
+        <v>0.01349668587727636</v>
       </c>
       <c r="T11">
-        <v>0.006890139127163282</v>
+        <v>0.0110203986852974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H12">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I12">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J12">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N12">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O12">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P12">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q12">
-        <v>11.65303021977467</v>
+        <v>5.570141226420001</v>
       </c>
       <c r="R12">
-        <v>104.877271977972</v>
+        <v>50.13127103778</v>
       </c>
       <c r="S12">
-        <v>0.01230064156893303</v>
+        <v>0.005294929312462949</v>
       </c>
       <c r="T12">
-        <v>0.01443104194849947</v>
+        <v>0.006485173386014764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H13">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I13">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J13">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N13">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O13">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P13">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q13">
-        <v>11.90263617952067</v>
+        <v>11.30396431346533</v>
       </c>
       <c r="R13">
-        <v>107.123725615686</v>
+        <v>101.735678821188</v>
       </c>
       <c r="S13">
-        <v>0.01256411925554323</v>
+        <v>0.01074545322235419</v>
       </c>
       <c r="T13">
-        <v>0.01474015245518789</v>
+        <v>0.01316091738831228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H14">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I14">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J14">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N14">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O14">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P14">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q14">
-        <v>16.53721380040425</v>
+        <v>46.10466726291</v>
       </c>
       <c r="R14">
-        <v>66.148855201617</v>
+        <v>184.41866905164</v>
       </c>
       <c r="S14">
-        <v>0.01745626121885393</v>
+        <v>0.04382670819436883</v>
       </c>
       <c r="T14">
-        <v>0.009102037898737984</v>
+        <v>0.02385710594723678</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H15">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I15">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J15">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P15">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q15">
-        <v>9.276675532322832</v>
+        <v>26.199191950748</v>
       </c>
       <c r="R15">
-        <v>55.660053193937</v>
+        <v>157.195151704488</v>
       </c>
       <c r="S15">
-        <v>0.009792222153578237</v>
+        <v>0.02490473109817682</v>
       </c>
       <c r="T15">
-        <v>0.007658785810772469</v>
+        <v>0.02033536738927343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H16">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I16">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J16">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N16">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O16">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P16">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q16">
-        <v>6.938831715891833</v>
+        <v>39.408324831076</v>
       </c>
       <c r="R16">
-        <v>41.632990295351</v>
+        <v>236.449948986456</v>
       </c>
       <c r="S16">
-        <v>0.007324453831715919</v>
+        <v>0.03746122150609042</v>
       </c>
       <c r="T16">
-        <v>0.005728671408614374</v>
+        <v>0.0305880717673385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H17">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I17">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J17">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N17">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O17">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P17">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q17">
-        <v>8.776567785988499</v>
+        <v>19.361232004164</v>
       </c>
       <c r="R17">
-        <v>35.106271143954</v>
+        <v>77.44492801665601</v>
       </c>
       <c r="S17">
-        <v>0.009264321168385006</v>
+        <v>0.01840462399373171</v>
       </c>
       <c r="T17">
-        <v>0.004830599251668228</v>
+        <v>0.01001857275226365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H18">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I18">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J18">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N18">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O18">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P18">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q18">
-        <v>12.25471315319133</v>
+        <v>7.59566872908</v>
       </c>
       <c r="R18">
-        <v>73.52827891914801</v>
+        <v>45.57401237448</v>
       </c>
       <c r="S18">
-        <v>0.01293576273162797</v>
+        <v>0.007220378688174274</v>
       </c>
       <c r="T18">
-        <v>0.0101174416293557</v>
+        <v>0.005895628936320971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H19">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I19">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J19">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N19">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O19">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P19">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q19">
-        <v>12.51720706081233</v>
+        <v>15.414540630168</v>
       </c>
       <c r="R19">
-        <v>75.10324236487401</v>
+        <v>92.487243781008</v>
       </c>
       <c r="S19">
-        <v>0.01321284460739582</v>
+        <v>0.01465293243081471</v>
       </c>
       <c r="T19">
-        <v>0.01033415553813662</v>
+        <v>0.01196450438015892</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H20">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I20">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J20">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N20">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O20">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P20">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q20">
-        <v>14.1286194676775</v>
+        <v>25.727105603825</v>
       </c>
       <c r="R20">
-        <v>84.771716806065</v>
+        <v>154.36263362295</v>
       </c>
       <c r="S20">
-        <v>0.01491381045599922</v>
+        <v>0.0244559697948763</v>
       </c>
       <c r="T20">
-        <v>0.0116645311057632</v>
+        <v>0.01996894199255942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H21">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I21">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J21">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>53.453339</v>
       </c>
       <c r="O21">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P21">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q21">
-        <v>7.925556269829444</v>
+        <v>14.61954760909889</v>
       </c>
       <c r="R21">
-        <v>71.330006428465</v>
+        <v>131.57592848189</v>
       </c>
       <c r="S21">
-        <v>0.00836601511117226</v>
+        <v>0.01389721876407743</v>
       </c>
       <c r="T21">
-        <v>0.009814960816029993</v>
+        <v>0.01702116646888676</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H22">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I22">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J22">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N22">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O22">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P22">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q22">
-        <v>5.928212215632778</v>
+        <v>21.99044467271445</v>
       </c>
       <c r="R22">
-        <v>53.353909940695</v>
+        <v>197.91400205443</v>
       </c>
       <c r="S22">
-        <v>0.006257669656200305</v>
+        <v>0.02090393140112293</v>
       </c>
       <c r="T22">
-        <v>0.00734146205321159</v>
+        <v>0.02560291395515949</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H23">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I23">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J23">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N23">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O23">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P23">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q23">
-        <v>7.498287678755</v>
+        <v>10.80386195069667</v>
       </c>
       <c r="R23">
-        <v>44.98972607253</v>
+        <v>64.82317170418001</v>
       </c>
       <c r="S23">
-        <v>0.007915001281005482</v>
+        <v>0.01027006013047065</v>
       </c>
       <c r="T23">
-        <v>0.006190555989485944</v>
+        <v>0.008385773973618161</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H24">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I24">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J24">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N24">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O24">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P24">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q24">
-        <v>10.46985186965111</v>
+        <v>4.238498684100001</v>
       </c>
       <c r="R24">
-        <v>94.22866682686001</v>
+        <v>38.1464881569</v>
       </c>
       <c r="S24">
-        <v>0.01105170867143705</v>
+        <v>0.004029081132957348</v>
       </c>
       <c r="T24">
-        <v>0.01296580105568734</v>
+        <v>0.004934775932144617</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H25">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I25">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J25">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N25">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O25">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P25">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q25">
-        <v>10.69411434688111</v>
+        <v>8.601548133193335</v>
       </c>
       <c r="R25">
-        <v>96.24702912193001</v>
+        <v>77.41393319874001</v>
       </c>
       <c r="S25">
-        <v>0.01128843442411604</v>
+        <v>0.008176559173577439</v>
       </c>
       <c r="T25">
-        <v>0.01324352634733626</v>
+        <v>0.01001456314380785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.072866</v>
+      </c>
+      <c r="I26">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J26">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>31.3552725</v>
+      </c>
+      <c r="N26">
+        <v>62.710545</v>
+      </c>
+      <c r="O26">
+        <v>0.299218473999331</v>
+      </c>
+      <c r="P26">
+        <v>0.2323911939229701</v>
+      </c>
+      <c r="Q26">
+        <v>21.66509276199499</v>
+      </c>
+      <c r="R26">
+        <v>129.99055657197</v>
+      </c>
+      <c r="S26">
+        <v>0.02059465461640459</v>
+      </c>
+      <c r="T26">
+        <v>0.01681607668152828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H27">
+        <v>2.072866</v>
+      </c>
+      <c r="I27">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J27">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>17.81777966666667</v>
+      </c>
+      <c r="N27">
+        <v>53.453339</v>
+      </c>
+      <c r="O27">
+        <v>0.1700322917594261</v>
+      </c>
+      <c r="P27">
+        <v>0.1980860678117095</v>
+      </c>
+      <c r="Q27">
+        <v>12.31128988884155</v>
+      </c>
+      <c r="R27">
+        <v>110.801608999574</v>
+      </c>
+      <c r="S27">
+        <v>0.01170300842597354</v>
+      </c>
+      <c r="T27">
+        <v>0.0143337208679613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H28">
+        <v>2.072866</v>
+      </c>
+      <c r="I28">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J28">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>26.80116433333333</v>
+      </c>
+      <c r="N28">
+        <v>80.403493</v>
+      </c>
+      <c r="O28">
+        <v>0.2557593302123367</v>
+      </c>
+      <c r="P28">
+        <v>0.2979572850761729</v>
+      </c>
+      <c r="Q28">
+        <v>18.51840743565977</v>
+      </c>
+      <c r="R28">
+        <v>166.665666920938</v>
+      </c>
+      <c r="S28">
+        <v>0.01760344206106011</v>
+      </c>
+      <c r="T28">
+        <v>0.02156050954031291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H29">
+        <v>2.072866</v>
+      </c>
+      <c r="I29">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J29">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>13.167359</v>
+      </c>
+      <c r="N29">
+        <v>26.334718</v>
+      </c>
+      <c r="O29">
+        <v>0.1256540528098219</v>
+      </c>
+      <c r="P29">
+        <v>0.09759054968577822</v>
+      </c>
+      <c r="Q29">
+        <v>9.098056926964667</v>
+      </c>
+      <c r="R29">
+        <v>54.588341561788</v>
+      </c>
+      <c r="S29">
+        <v>0.008648536249053698</v>
+      </c>
+      <c r="T29">
+        <v>0.00706175711396581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H30">
+        <v>2.072866</v>
+      </c>
+      <c r="I30">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J30">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.16573</v>
+      </c>
+      <c r="N30">
+        <v>15.49719</v>
+      </c>
+      <c r="O30">
+        <v>0.04929575552859776</v>
+      </c>
+      <c r="P30">
+        <v>0.05742910520951641</v>
+      </c>
+      <c r="Q30">
+        <v>3.569288694059999</v>
+      </c>
+      <c r="R30">
+        <v>32.12359824654</v>
+      </c>
+      <c r="S30">
+        <v>0.00339293575559261</v>
+      </c>
+      <c r="T30">
+        <v>0.004155631806233118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H31">
+        <v>2.072866</v>
+      </c>
+      <c r="I31">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J31">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.483258</v>
+      </c>
+      <c r="N31">
+        <v>31.449774</v>
+      </c>
+      <c r="O31">
+        <v>0.1000400956904865</v>
+      </c>
+      <c r="P31">
+        <v>0.1165457982938529</v>
+      </c>
+      <c r="Q31">
+        <v>7.243463025809334</v>
+      </c>
+      <c r="R31">
+        <v>65.191167232284</v>
+      </c>
+      <c r="S31">
+        <v>0.006885574914543013</v>
+      </c>
+      <c r="T31">
+        <v>0.008433379285744278</v>
       </c>
     </row>
   </sheetData>
